--- a/storage/exports/管理员表.xlsx
+++ b/storage/exports/管理员表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>ID号</t>
   </si>
@@ -35,7 +35,7 @@
     <t>admin12366</t>
   </si>
   <si>
-    <t>admin12366@qq.com</t>
+    <t>lixiaowang@welltrend.com.cn</t>
   </si>
   <si>
     <t>2018-07-11 17:22:22</t>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>2018-07-12 10:44:42</t>
+  </si>
+  <si>
+    <t>lxw</t>
+  </si>
+  <si>
+    <t>1844912514@qq.com</t>
+  </si>
+  <si>
+    <t>2018-06-24 09:28:28</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +433,7 @@
   <cols>
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="32.991943" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="3.427734" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -516,7 +525,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -528,6 +537,23 @@
         <v>19</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
